--- a/ITEST/itest.WebService/openl-repository/deployment5/simple5/module1.xlsx
+++ b/ITEST/itest.WebService/openl-repository/deployment5/simple5/module1.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\ITEST\itest.WebService\openl-repository\deployment5\simple5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0459E76D-CF41-4D27-8CF2-D0F934BAAE76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3273C7-BC46-4293-BB4F-24239718D052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1470" windowWidth="28875" windowHeight="17610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6110" yWindow="2130" windowWidth="24340" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -47,9 +40,6 @@
     <t>properties</t>
   </si>
   <si>
-    <t>detailedPlainModel</t>
-  </si>
-  <si>
     <t>Spreadsheet SpreadsheetResult calc(MyDatatype myDatatype)</t>
   </si>
   <si>
@@ -96,6 +86,9 @@
   </si>
   <si>
     <t>sortedMapField</t>
+  </si>
+  <si>
+    <t>tableStructureDetails</t>
   </si>
 </sst>
 </file>
@@ -474,46 +467,46 @@
   <dimension ref="A2:R65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>0</v>
@@ -523,7 +516,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -533,7 +526,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -541,7 +534,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -549,7 +542,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -557,7 +550,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -565,7 +558,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -573,101 +566,101 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -675,7 +668,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -683,7 +676,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -691,7 +684,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -699,7 +692,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -707,7 +700,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -715,7 +708,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -723,7 +716,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -731,7 +724,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -739,7 +732,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -747,7 +740,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -755,7 +748,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -763,7 +756,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -783,7 +776,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -803,7 +796,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -823,7 +816,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -831,7 +824,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -839,79 +832,79 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
     </row>
   </sheetData>
